--- a/biology/Biochimie/Glucoside/Glucoside.xlsx
+++ b/biology/Biochimie/Glucoside/Glucoside.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un glucoside est un hétéroside dérivé du glucose. Ils sont communs chez les plantes, mais rares chez les animaux. Ils produisent du glucose lorsqu'ils sont hydrolysés, décomposés par fermentation ou par l'action de certaines enzymes.
 Le nom désignait à l'origine les composés naturels comportant une molécule de glucose ainsi qu'une molécule de composés de type aldéhyde aromatique ou composé phénolique. La notion a depuis été étendue aux éthers synthétiques comme ceux obtenus par réaction entre des solutions alcooliques de glucose avec l'acide chlorhydrique, ainsi que les polysaccharoses qui sont également des éthers.
